--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Bsg-Sele.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Bsg-Sele.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>51.24664566666667</v>
+        <v>48.68074166666667</v>
       </c>
       <c r="H2">
-        <v>153.739937</v>
+        <v>146.042225</v>
       </c>
       <c r="I2">
-        <v>0.1518741212000517</v>
+        <v>0.1601707305796784</v>
       </c>
       <c r="J2">
-        <v>0.1518741212000517</v>
+        <v>0.1601707305796784</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.27954633333333</v>
+        <v>19.45823433333333</v>
       </c>
       <c r="N2">
-        <v>39.838639</v>
+        <v>58.374703</v>
       </c>
       <c r="O2">
-        <v>0.9815483547588711</v>
+        <v>0.9947910685286296</v>
       </c>
       <c r="P2">
-        <v>0.9815483547588713</v>
+        <v>0.9947910685286296</v>
       </c>
       <c r="Q2">
-        <v>680.532205558416</v>
+        <v>947.2412788704639</v>
       </c>
       <c r="R2">
-        <v>6124.789850025743</v>
+        <v>8525.171509834176</v>
       </c>
       <c r="S2">
-        <v>0.1490717937943601</v>
+        <v>0.1593364122203696</v>
       </c>
       <c r="T2">
-        <v>0.1490717937943601</v>
+        <v>0.1593364122203696</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>51.24664566666667</v>
+        <v>48.68074166666667</v>
       </c>
       <c r="H3">
-        <v>153.739937</v>
+        <v>146.042225</v>
       </c>
       <c r="I3">
-        <v>0.1518741212000517</v>
+        <v>0.1601707305796784</v>
       </c>
       <c r="J3">
-        <v>0.1518741212000517</v>
+        <v>0.1601707305796784</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -626,27 +626,27 @@
         <v>0.305662</v>
       </c>
       <c r="O3">
-        <v>0.007530930793401502</v>
+        <v>0.005208931471370364</v>
       </c>
       <c r="P3">
-        <v>0.007530930793401503</v>
+        <v>0.005208931471370364</v>
       </c>
       <c r="Q3">
-        <v>5.221384069254889</v>
+        <v>4.959950953105555</v>
       </c>
       <c r="R3">
-        <v>46.992456623294</v>
+        <v>44.63955857795</v>
       </c>
       <c r="S3">
-        <v>0.001143753496066261</v>
+        <v>0.0008343183593088704</v>
       </c>
       <c r="T3">
-        <v>0.001143753496066261</v>
+        <v>0.0008343183593088704</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,51 +664,51 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>51.24664566666667</v>
+        <v>135.746788</v>
       </c>
       <c r="H4">
-        <v>153.739937</v>
+        <v>407.240364</v>
       </c>
       <c r="I4">
-        <v>0.1518741212000517</v>
+        <v>0.4466378584920503</v>
       </c>
       <c r="J4">
-        <v>0.1518741212000517</v>
+        <v>0.4466378584920503</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.06290533333333333</v>
+        <v>19.45823433333333</v>
       </c>
       <c r="N4">
-        <v>0.188716</v>
+        <v>58.374703</v>
       </c>
       <c r="O4">
-        <v>0.004649603600079689</v>
+        <v>0.9947910685286296</v>
       </c>
       <c r="P4">
-        <v>0.004649603600079689</v>
+        <v>0.9947910685286296</v>
       </c>
       <c r="Q4">
-        <v>3.223687327876889</v>
+        <v>2641.392810901321</v>
       </c>
       <c r="R4">
-        <v>29.013185950892</v>
+        <v>23772.53529811189</v>
       </c>
       <c r="S4">
-        <v>0.0007061544606906992</v>
+        <v>0.4443113524946457</v>
       </c>
       <c r="T4">
-        <v>0.0007061544606906993</v>
+        <v>0.4443113524946456</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>51.24664566666667</v>
+        <v>135.746788</v>
       </c>
       <c r="H5">
-        <v>153.739937</v>
+        <v>407.240364</v>
       </c>
       <c r="I5">
-        <v>0.1518741212000517</v>
+        <v>0.4466378584920503</v>
       </c>
       <c r="J5">
-        <v>0.1518741212000517</v>
+        <v>0.4466378584920503</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -744,33 +744,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.084843</v>
+        <v>0.1018873333333333</v>
       </c>
       <c r="N5">
-        <v>0.254529</v>
+        <v>0.305662</v>
       </c>
       <c r="O5">
-        <v>0.006271110847647699</v>
+        <v>0.005208931471370364</v>
       </c>
       <c r="P5">
-        <v>0.0062711108476477</v>
+        <v>0.005208931471370364</v>
       </c>
       <c r="Q5">
-        <v>4.347919158297</v>
+        <v>13.83087823788533</v>
       </c>
       <c r="R5">
-        <v>39.131272424673</v>
+        <v>124.477904140968</v>
       </c>
       <c r="S5">
-        <v>0.0009524194489346054</v>
+        <v>0.002326505997404704</v>
       </c>
       <c r="T5">
-        <v>0.0009524194489346056</v>
+        <v>0.002326505997404704</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>135.746788</v>
+        <v>44.00775933333333</v>
       </c>
       <c r="H6">
-        <v>407.240364</v>
+        <v>132.023278</v>
       </c>
       <c r="I6">
-        <v>0.4022980209734909</v>
+        <v>0.1447955540993982</v>
       </c>
       <c r="J6">
-        <v>0.4022980209734908</v>
+        <v>0.1447955540993982</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,33 +806,33 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>13.27954633333333</v>
+        <v>19.45823433333333</v>
       </c>
       <c r="N6">
-        <v>39.838639</v>
+        <v>58.374703</v>
       </c>
       <c r="O6">
-        <v>0.9815483547588711</v>
+        <v>0.9947910685286296</v>
       </c>
       <c r="P6">
-        <v>0.9815483547588713</v>
+        <v>0.9947910685286296</v>
       </c>
       <c r="Q6">
-        <v>1802.655760847178</v>
+        <v>856.313293592937</v>
       </c>
       <c r="R6">
-        <v>16223.9018476246</v>
+        <v>7706.819642336435</v>
       </c>
       <c r="S6">
-        <v>0.3948749606092798</v>
+        <v>0.1440413239807354</v>
       </c>
       <c r="T6">
-        <v>0.3948749606092798</v>
+        <v>0.1440413239807354</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>135.746788</v>
+        <v>44.00775933333333</v>
       </c>
       <c r="H7">
-        <v>407.240364</v>
+        <v>132.023278</v>
       </c>
       <c r="I7">
-        <v>0.4022980209734909</v>
+        <v>0.1447955540993982</v>
       </c>
       <c r="J7">
-        <v>0.4022980209734908</v>
+        <v>0.1447955540993982</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -874,27 +874,27 @@
         <v>0.305662</v>
       </c>
       <c r="O7">
-        <v>0.007530930793401502</v>
+        <v>0.005208931471370364</v>
       </c>
       <c r="P7">
-        <v>0.007530930793401503</v>
+        <v>0.005208931471370364</v>
       </c>
       <c r="Q7">
-        <v>13.83087823788533</v>
+        <v>4.483833244448444</v>
       </c>
       <c r="R7">
-        <v>124.477904140968</v>
+        <v>40.354499200036</v>
       </c>
       <c r="S7">
-        <v>0.003029678554273746</v>
+        <v>0.0007542301186628654</v>
       </c>
       <c r="T7">
-        <v>0.003029678554273746</v>
+        <v>0.0007542301186628654</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -912,51 +912,51 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>135.746788</v>
+        <v>27.64718166666666</v>
       </c>
       <c r="H8">
-        <v>407.240364</v>
+        <v>82.94154499999999</v>
       </c>
       <c r="I8">
-        <v>0.4022980209734909</v>
+        <v>0.09096552629253131</v>
       </c>
       <c r="J8">
-        <v>0.4022980209734908</v>
+        <v>0.0909655262925313</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.06290533333333333</v>
+        <v>19.45823433333333</v>
       </c>
       <c r="N8">
-        <v>0.188716</v>
+        <v>58.374703</v>
       </c>
       <c r="O8">
-        <v>0.004649603600079689</v>
+        <v>0.9947910685286296</v>
       </c>
       <c r="P8">
-        <v>0.004649603600079689</v>
+        <v>0.9947910685286296</v>
       </c>
       <c r="Q8">
-        <v>8.539196948069334</v>
+        <v>537.9653395262372</v>
       </c>
       <c r="R8">
-        <v>76.852772532624</v>
+        <v>4841.688055736135</v>
       </c>
       <c r="S8">
-        <v>0.001870526326623277</v>
+        <v>0.09049169309981638</v>
       </c>
       <c r="T8">
-        <v>0.001870526326623277</v>
+        <v>0.09049169309981636</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>135.746788</v>
+        <v>27.64718166666666</v>
       </c>
       <c r="H9">
-        <v>407.240364</v>
+        <v>82.94154499999999</v>
       </c>
       <c r="I9">
-        <v>0.4022980209734909</v>
+        <v>0.09096552629253131</v>
       </c>
       <c r="J9">
-        <v>0.4022980209734908</v>
+        <v>0.0909655262925313</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -992,33 +992,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.084843</v>
+        <v>0.1018873333333333</v>
       </c>
       <c r="N9">
-        <v>0.254529</v>
+        <v>0.305662</v>
       </c>
       <c r="O9">
-        <v>0.006271110847647699</v>
+        <v>0.005208931471370364</v>
       </c>
       <c r="P9">
-        <v>0.0062711108476477</v>
+        <v>0.005208931471370364</v>
       </c>
       <c r="Q9">
-        <v>11.517164734284</v>
+        <v>2.816897614198889</v>
       </c>
       <c r="R9">
-        <v>103.654482608556</v>
+        <v>25.35207852779</v>
       </c>
       <c r="S9">
-        <v>0.00252285548331406</v>
+        <v>0.0004738331927149346</v>
       </c>
       <c r="T9">
-        <v>0.00252285548331406</v>
+        <v>0.0004738331927149346</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>67.72999566666668</v>
+        <v>47.847851</v>
       </c>
       <c r="H10">
-        <v>203.189987</v>
+        <v>143.543553</v>
       </c>
       <c r="I10">
-        <v>0.2007240364114038</v>
+        <v>0.1574303305363417</v>
       </c>
       <c r="J10">
-        <v>0.2007240364114038</v>
+        <v>0.1574303305363417</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,33 +1054,33 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>13.27954633333333</v>
+        <v>19.45823433333333</v>
       </c>
       <c r="N10">
-        <v>39.838639</v>
+        <v>58.374703</v>
       </c>
       <c r="O10">
-        <v>0.9815483547588711</v>
+        <v>0.9947910685286296</v>
       </c>
       <c r="P10">
-        <v>0.9815483547588713</v>
+        <v>0.9947910685286296</v>
       </c>
       <c r="Q10">
-        <v>899.4236156119662</v>
+        <v>931.0346971044177</v>
       </c>
       <c r="R10">
-        <v>8094.812540507694</v>
+        <v>8379.31227393976</v>
       </c>
       <c r="S10">
-        <v>0.1970203477001732</v>
+        <v>0.1566102867330627</v>
       </c>
       <c r="T10">
-        <v>0.1970203477001732</v>
+        <v>0.1566102867330627</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>67.72999566666668</v>
+        <v>47.847851</v>
       </c>
       <c r="H11">
-        <v>203.189987</v>
+        <v>143.543553</v>
       </c>
       <c r="I11">
-        <v>0.2007240364114038</v>
+        <v>0.1574303305363417</v>
       </c>
       <c r="J11">
-        <v>0.2007240364114038</v>
+        <v>0.1574303305363417</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1122,642 +1122,22 @@
         <v>0.305662</v>
       </c>
       <c r="O11">
-        <v>0.007530930793401502</v>
+        <v>0.005208931471370364</v>
       </c>
       <c r="P11">
-        <v>0.007530930793401503</v>
+        <v>0.005208931471370364</v>
       </c>
       <c r="Q11">
-        <v>6.90082864515489</v>
+        <v>4.875089944120666</v>
       </c>
       <c r="R11">
-        <v>62.10745780639401</v>
+        <v>43.875809497086</v>
       </c>
       <c r="S11">
-        <v>0.001511638826786485</v>
+        <v>0.0008200438032789892</v>
       </c>
       <c r="T11">
-        <v>0.001511638826786485</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>67.72999566666668</v>
-      </c>
-      <c r="H12">
-        <v>203.189987</v>
-      </c>
-      <c r="I12">
-        <v>0.2007240364114038</v>
-      </c>
-      <c r="J12">
-        <v>0.2007240364114038</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M12">
-        <v>0.06290533333333333</v>
-      </c>
-      <c r="N12">
-        <v>0.188716</v>
-      </c>
-      <c r="O12">
-        <v>0.004649603600079689</v>
-      </c>
-      <c r="P12">
-        <v>0.004649603600079689</v>
-      </c>
-      <c r="Q12">
-        <v>4.260577954076889</v>
-      </c>
-      <c r="R12">
-        <v>38.34520158669201</v>
-      </c>
-      <c r="S12">
-        <v>0.0009332872023209897</v>
-      </c>
-      <c r="T12">
-        <v>0.0009332872023209898</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>67.72999566666668</v>
-      </c>
-      <c r="H13">
-        <v>203.189987</v>
-      </c>
-      <c r="I13">
-        <v>0.2007240364114038</v>
-      </c>
-      <c r="J13">
-        <v>0.2007240364114038</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M13">
-        <v>0.084843</v>
-      </c>
-      <c r="N13">
-        <v>0.254529</v>
-      </c>
-      <c r="O13">
-        <v>0.006271110847647699</v>
-      </c>
-      <c r="P13">
-        <v>0.0062711108476477</v>
-      </c>
-      <c r="Q13">
-        <v>5.746416022347002</v>
-      </c>
-      <c r="R13">
-        <v>51.71774420112301</v>
-      </c>
-      <c r="S13">
-        <v>0.001258762682123186</v>
-      </c>
-      <c r="T13">
-        <v>0.001258762682123186</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>29.08290733333334</v>
-      </c>
-      <c r="H14">
-        <v>87.24872200000001</v>
-      </c>
-      <c r="I14">
-        <v>0.08618985566240746</v>
-      </c>
-      <c r="J14">
-        <v>0.08618985566240746</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>13.27954633333333</v>
-      </c>
-      <c r="N14">
-        <v>39.838639</v>
-      </c>
-      <c r="O14">
-        <v>0.9815483547588711</v>
-      </c>
-      <c r="P14">
-        <v>0.9815483547588713</v>
-      </c>
-      <c r="Q14">
-        <v>386.2078154410399</v>
-      </c>
-      <c r="R14">
-        <v>3475.870338969359</v>
-      </c>
-      <c r="S14">
-        <v>0.08459951102234062</v>
-      </c>
-      <c r="T14">
-        <v>0.08459951102234062</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>29.08290733333334</v>
-      </c>
-      <c r="H15">
-        <v>87.24872200000001</v>
-      </c>
-      <c r="I15">
-        <v>0.08618985566240746</v>
-      </c>
-      <c r="J15">
-        <v>0.08618985566240746</v>
-      </c>
-      <c r="K15">
-        <v>1</v>
-      </c>
-      <c r="L15">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M15">
-        <v>0.1018873333333333</v>
-      </c>
-      <c r="N15">
-        <v>0.305662</v>
-      </c>
-      <c r="O15">
-        <v>0.007530930793401502</v>
-      </c>
-      <c r="P15">
-        <v>0.007530930793401503</v>
-      </c>
-      <c r="Q15">
-        <v>2.963179873773778</v>
-      </c>
-      <c r="R15">
-        <v>26.668618863964</v>
-      </c>
-      <c r="S15">
-        <v>0.0006490898380868552</v>
-      </c>
-      <c r="T15">
-        <v>0.0006490898380868553</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>29.08290733333334</v>
-      </c>
-      <c r="H16">
-        <v>87.24872200000001</v>
-      </c>
-      <c r="I16">
-        <v>0.08618985566240746</v>
-      </c>
-      <c r="J16">
-        <v>0.08618985566240746</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M16">
-        <v>0.06290533333333333</v>
-      </c>
-      <c r="N16">
-        <v>0.188716</v>
-      </c>
-      <c r="O16">
-        <v>0.004649603600079689</v>
-      </c>
-      <c r="P16">
-        <v>0.004649603600079689</v>
-      </c>
-      <c r="Q16">
-        <v>1.829469980105778</v>
-      </c>
-      <c r="R16">
-        <v>16.465229820952</v>
-      </c>
-      <c r="S16">
-        <v>0.0004007486631782784</v>
-      </c>
-      <c r="T16">
-        <v>0.0004007486631782785</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>29.08290733333334</v>
-      </c>
-      <c r="H17">
-        <v>87.24872200000001</v>
-      </c>
-      <c r="I17">
-        <v>0.08618985566240746</v>
-      </c>
-      <c r="J17">
-        <v>0.08618985566240746</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M17">
-        <v>0.084843</v>
-      </c>
-      <c r="N17">
-        <v>0.254529</v>
-      </c>
-      <c r="O17">
-        <v>0.006271110847647699</v>
-      </c>
-      <c r="P17">
-        <v>0.0062711108476477</v>
-      </c>
-      <c r="Q17">
-        <v>2.467481106882</v>
-      </c>
-      <c r="R17">
-        <v>22.207329961938</v>
-      </c>
-      <c r="S17">
-        <v>0.0005405061388017129</v>
-      </c>
-      <c r="T17">
-        <v>0.0005405061388017129</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18">
-        <v>3</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>53.62208933333334</v>
-      </c>
-      <c r="H18">
-        <v>160.866268</v>
-      </c>
-      <c r="I18">
-        <v>0.1589139657526463</v>
-      </c>
-      <c r="J18">
-        <v>0.1589139657526463</v>
-      </c>
-      <c r="K18">
-        <v>3</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>13.27954633333333</v>
-      </c>
-      <c r="N18">
-        <v>39.838639</v>
-      </c>
-      <c r="O18">
-        <v>0.9815483547588711</v>
-      </c>
-      <c r="P18">
-        <v>0.9815483547588713</v>
-      </c>
-      <c r="Q18">
-        <v>712.0770197921393</v>
-      </c>
-      <c r="R18">
-        <v>6408.693178129253</v>
-      </c>
-      <c r="S18">
-        <v>0.1559817416327176</v>
-      </c>
-      <c r="T18">
-        <v>0.1559817416327176</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19">
-        <v>3</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>53.62208933333334</v>
-      </c>
-      <c r="H19">
-        <v>160.866268</v>
-      </c>
-      <c r="I19">
-        <v>0.1589139657526463</v>
-      </c>
-      <c r="J19">
-        <v>0.1589139657526463</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M19">
-        <v>0.1018873333333333</v>
-      </c>
-      <c r="N19">
-        <v>0.305662</v>
-      </c>
-      <c r="O19">
-        <v>0.007530930793401502</v>
-      </c>
-      <c r="P19">
-        <v>0.007530930793401503</v>
-      </c>
-      <c r="Q19">
-        <v>5.463411689935112</v>
-      </c>
-      <c r="R19">
-        <v>49.17070520941601</v>
-      </c>
-      <c r="S19">
-        <v>0.001196770078188156</v>
-      </c>
-      <c r="T19">
-        <v>0.001196770078188156</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>53.62208933333334</v>
-      </c>
-      <c r="H20">
-        <v>160.866268</v>
-      </c>
-      <c r="I20">
-        <v>0.1589139657526463</v>
-      </c>
-      <c r="J20">
-        <v>0.1589139657526463</v>
-      </c>
-      <c r="K20">
-        <v>1</v>
-      </c>
-      <c r="L20">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M20">
-        <v>0.06290533333333333</v>
-      </c>
-      <c r="N20">
-        <v>0.188716</v>
-      </c>
-      <c r="O20">
-        <v>0.004649603600079689</v>
-      </c>
-      <c r="P20">
-        <v>0.004649603600079689</v>
-      </c>
-      <c r="Q20">
-        <v>3.373115403543111</v>
-      </c>
-      <c r="R20">
-        <v>30.358038631888</v>
-      </c>
-      <c r="S20">
-        <v>0.0007388869472664446</v>
-      </c>
-      <c r="T20">
-        <v>0.0007388869472664446</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>53.62208933333334</v>
-      </c>
-      <c r="H21">
-        <v>160.866268</v>
-      </c>
-      <c r="I21">
-        <v>0.1589139657526463</v>
-      </c>
-      <c r="J21">
-        <v>0.1589139657526463</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M21">
-        <v>0.084843</v>
-      </c>
-      <c r="N21">
-        <v>0.254529</v>
-      </c>
-      <c r="O21">
-        <v>0.006271110847647699</v>
-      </c>
-      <c r="P21">
-        <v>0.0062711108476477</v>
-      </c>
-      <c r="Q21">
-        <v>4.549458925308</v>
-      </c>
-      <c r="R21">
-        <v>40.94513032777201</v>
-      </c>
-      <c r="S21">
-        <v>0.0009965670944741352</v>
-      </c>
-      <c r="T21">
-        <v>0.0009965670944741352</v>
+        <v>0.0008200438032789892</v>
       </c>
     </row>
   </sheetData>
